--- a/DOM_Banner/output/dept_banner/Neha Jaswal_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Neha Jaswal_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,524 +360,246 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Sanjay V. Menghani, Chelsea L. Takamatsu, Ramzi Ibrahim, Lupita Molina, Neha Jaswal, Fariba M. Donovan</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381249747</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Non-shunt Management of Communicating Hydrocephalus in an Immunocompetent Host With Disseminated Central Nervous System Coccidioidomycosis</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5032030376", "https://openalex.org/A5082342666", "https://openalex.org/A5059349980", "https://openalex.org/A5082376989", "https://openalex.org/A5021931647", "https://openalex.org/A5088685593"), au_display_name = c("Sanjay V. Menghani", "Chelsea L. Takamatsu", "Ramzi Ibrahim", "Lupita Molina", "Neha Jaswal", "Fariba M. Donovan"), au_orcid = c("https://orcid.org/0000-0003-2056-1879", NA, "https://orcid.org/0000-0003-0124-9513", NA, NA, NA), author_position = c("first", 
-"middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA", "The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA", "The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA", "The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA", "The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA", "The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA"
-), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", 
-"https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Disseminated coccidioidomycosis is associated with significant morbidity and mortality. Involvement of the meninges is often fatal if untreated, typically requiring lifelong antifungal therapy and neurosurgical intervention. We present the case of a young male without any known immunocompromising conditions who opted exclusively for medical management of newly diagnosed coccidioidomycosis meningitis with communicating hydrocephalus and discuss the controversy associated with this approach. This case highlights the importance of shared decision-making between patient and clinician, even if the plan diverges from available guidelines. Furthermore, we discuss clinical considerations in approaching the close outpatient monitoring of patients with central nervous system coccidioidomycosis with hydrocephalus.</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Journal of Investigative Medicine High Impact Case Reports</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Journal of Investigative Medicine High Impact Case Reports</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2764765636</t>
+          <t>https://doi.org/10.1177/23247096231181060</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2324-7096</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37334970</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1177/23247096231181060</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/23247096231181060</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://journals.sagepub.com/doi/pdf/10.1177/23247096231181060</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4381249747</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4381249747", doi = "https://doi.org/10.1177/23247096231181060", pmid = "https://pubmed.ncbi.nlm.nih.gov/37334970")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/23247096231181060</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1593779334", "https://openalex.org/W2006558422", "https://openalex.org/W2013871628", "https://openalex.org/W2038824708", "https://openalex.org/W2109014098", "https://openalex.org/W2125388133", "https://openalex.org/W2141851034", "https://openalex.org/W2156984743", "https://openalex.org/W2479157738", "https://openalex.org/W2560287408", "https://openalex.org/W2791659277", "https://openalex.org/W3006793634", "https://openalex.org/W3014825820", "https://openalex.org/W4213419186", 
-"https://openalex.org/W4280501827", "https://openalex.org/W4283122802", "https://openalex.org/W4323921181")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4319432437", "https://openalex.org/W2094442416", "https://openalex.org/W2115914830", "https://openalex.org/W2467657463", "https://openalex.org/W2725894540", "https://openalex.org/W1832602535", "https://openalex.org/W2059269309", "https://openalex.org/W4319719297", "https://openalex.org/W2008300364", "https://openalex.org/W2361974199")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Neha Jaswal, Chandrima Naskar, Abhishek Ghosh, Savita Prashar, M. Kumar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386396994</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Substance use and misuse among college students: Results of an online survey from three neighboring cities of North India</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5021931647", "https://openalex.org/A5090637886", "https://openalex.org/A5055479866", "https://openalex.org/A5007324301", "https://openalex.org/A5067387864"), au_display_name = c("Neha Jaswal", "Chandrima Naskar", "Abhishek Ghosh", "Savita Prashar", "M. Kumar"), au_orcid = c(NA, "https://orcid.org/0000-0002-0177-7618", "https://orcid.org/0000-0002-0988-7694", NA, "https://orcid.org/0000-0001-6648-4165"), author_position = c("first", "middle", "middle", "middle", 
-"last"), au_affiliation_raw = c("Centre of Public Health, Panjab University, Chandigarh, India", "Department of Psychiatry, Postgraduate Institute of Medical Education and Research, Chandigarh, India", "Department of Psychiatry, Postgraduate Institute of Medical Education and Research, Chandigarh, India", "Centre of Public Health, Panjab University, Chandigarh, India", "Centre of Public Health, Panjab University, Chandigarh, India"), institution_id = c("https://openalex.org/I51452335", "https://openalex.org/I45294948", 
-"https://openalex.org/I45294948", "https://openalex.org/I51452335", "https://openalex.org/I51452335"), institution_display_name = c("Panjab University", "Post Graduate Institute of Medical Education and Research", "Post Graduate Institute of Medical Education and Research", "Panjab University", "Panjab University"), institution_ror = c("https://ror.org/04p2sbk06", "https://ror.org/009nfym65", "https://ror.org/009nfym65", "https://ror.org/04p2sbk06", "https://ror.org/04p2sbk06"), institution_country_code = c("IN", 
-"IN", "IN", "IN", "IN"), institution_type = c("education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I51452335", "https://openalex.org/I45294948", "https://openalex.org/I45294948", "https://openalex.org/I51452335", "https://openalex.org/I51452335"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>We estimated prevalence and severity of substance use in college students from three cities in North India and explored demographic correlates of substance use. This was a cross-sectional online survey. We used Alcohol, Smoking, and Substance Involvement Screening Test (ASSIST). We contacted respondents through social groups. We performed analyses from the original sample, bootstrapped samples, and random subsamples. A total of 229 (58.3%) respondents reported any lifetime substance use. A third of substance-using respondents were female. Alcohol (54.7%), tobacco (40.2%), and cannabis (15%) use were most commonly reported. Prevalence estimates did not differ between original and subsample analyses. A significant proportion of respondents (alcohol 29.7% and amphetamines 66.7%) were at moderate risk level. Male gender, family history of substance use, and commerce stream correlated with substance use. There were positive correlations between tobacco and alcohol and licit and illicit substance use. The study highlights the need for a comprehensive college substance misuse prevention policy.</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>Indian Journal of Psychiatry</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Indian Journal of Psychiatry</t>
+          <t>Medknow</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S25288002</t>
+          <t>https://doi.org/10.4103/indianjpsychiatry.indianjpsychiatry_661_22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Medknow</t>
+          <t>cc-by-nc-sa</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0019-5545</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37841551</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.4103/indianjpsychiatry.indianjpsychiatry_661_22</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>cc-by-nc-sa</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>966</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>970</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4103/indianjpsychiatry.indianjpsychiatry_661_22</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4386396994</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4386396994", doi = "https://doi.org/10.4103/indianjpsychiatry.indianjpsychiatry_661_22", pmid = "https://pubmed.ncbi.nlm.nih.gov/37841551")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4103/indianjpsychiatry.indianjpsychiatry_661_22</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1631398561", "https://openalex.org/W1821641490", "https://openalex.org/W1978850765", "https://openalex.org/W2288490841", "https://openalex.org/W2402744907", "https://openalex.org/W2617126691", "https://openalex.org/W2757380288", "https://openalex.org/W2899112555", "https://openalex.org/W2937350850", "https://openalex.org/W3021592653", "https://openalex.org/W3024901602", "https://openalex.org/W4285539415")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4212829186", "https://openalex.org/W4312743629", "https://openalex.org/W4313135176", "https://openalex.org/W4242113579", "https://openalex.org/W4386775938", "https://openalex.org/W4243658650", "https://openalex.org/W2166097659", "https://openalex.org/W2149089602", "https://openalex.org/W3134282974", "https://openalex.org/W330190151")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Neha Jaswal_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Neha Jaswal_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,80 +447,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sanjay V. Menghani, Chelsea L. Takamatsu, Ramzi Ibrahim, Lupita Molina, Neha Jaswal, Fariba M. Donovan</t>
+          <t>Neha Jaswal, Chandrima Naskar, Abhishek Ghosh, Savita Prashar, M. Kumar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381249747</t>
+          <t>Centre of Public Health, Panjab University, Chandigarh, India; Department of Psychiatry, Postgraduate Institute of Medical Education and Research, Chandigarh, India; Department of Psychiatry, Postgraduate Institute of Medical Education and Research, Chandigarh, India; Centre of Public Health, Panjab University, Chandigarh, India; Centre of Public Health, Panjab University, Chandigarh, India</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Non-shunt Management of Communicating Hydrocephalus in an Immunocompetent Host With Disseminated Central Nervous System Coccidioidomycosis</t>
+          <t>https://openalex.org/W4386396994</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Substance use and misuse among college students: Results of an online survey from three neighboring cities of North India</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Journal of Investigative Medicine High Impact Case Reports</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Indian Journal of Psychiatry</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/23247096231181060</t>
+          <t>Medknow</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.4103/indianjpsychiatry.indianjpsychiatry_661_22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>cc-by-nc-sa</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37334970</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/23247096231181060</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37841551</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4103/indianjpsychiatry.indianjpsychiatry_661_22</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,80 +534,85 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Neha Jaswal, Chandrima Naskar, Abhishek Ghosh, Savita Prashar, M. Kumar</t>
+          <t>Sanjay V. Menghani, Chelsea L. Takamatsu, Ramzi Ibrahim, Lupita Molina, Neha Jaswal, Fariba M. Donovan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386396994</t>
+          <t>The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA; The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA; The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA; The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA; The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA; The University of Arizona College of Medicine – Tucson, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Substance use and misuse among college students: Results of an online survey from three neighboring cities of North India</t>
+          <t>https://openalex.org/W4381249747</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>Non-shunt Management of Communicating Hydrocephalus in an Immunocompetent Host With Disseminated Central Nervous System Coccidioidomycosis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Indian Journal of Psychiatry</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Medknow</t>
+          <t>Journal of Investigative Medicine High Impact Case Reports</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4103/indianjpsychiatry.indianjpsychiatry_661_22</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cc-by-nc-sa</t>
+          <t>https://doi.org/10.1177/23247096231181060</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37841551</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4103/indianjpsychiatry.indianjpsychiatry_661_22</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37334970</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/23247096231181060</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
